--- a/test4.xlsx
+++ b/test4.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>청남대</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>청주시 상당구 문의면 청남대길 646</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['무료주차/ 유료입장료수갑찬 대통령은 좀 뺐으면..한번쯤 가기 좋은 곳, 두시간 좀 넘게 보고 왔어요 가족끼리 가기 좋은곳, 본관 내부도 볼만함하지만 훌륭하지 않은 부끄러운 대통령도 계속 등장(?)해서 자녀 교육 할때 애좀 먹었네요.. 수갑찬 대통령은 좀 뺐으면..', '가을 단풍 경치와 주위 경관은 너무 너무 좋습니다. 그러나 청남대 가는데 입구 진입에서 한시간 주차하다시피 느리게 이동해야 합니다. 입장해서는 가장 아름다운 곳 중심에 요새같은 별장에서 지냈을 역대 대통령 중 몇몇의 모습이 연상되었어요. 그 시대에 그 시설, 그들을 위해 군인들의 보초 섰을 상황이 현실적으로 그려지더군요. 역사 사진도 있고요. 영상 자료인지 뭐도 보러가고 하던데 전 그냥 패스 했습니다. 씁쓸한 마음에 얼굴이 좀 구겨지던 찰나 앞에 가시던 어른분이 하시던 말씀이 기억납니다. "아주 호사를 누렸구만!" 네 동감합니다. 풍경과 단풍 사진 명소에서 사진 찍으시고요 역사의 현실과 진실도 알고 가시면 좋을 것 같네요. 전 자주 갈 것 같진 않아요.', '과거에도 3회 정도 다녀왔는데, 이번에 갔더니 시설물들이 더욱 늘었고 볼거리도 많아졌네요!계절마다 즐길거리가 풍성합니다.꼭 가보시길 강추합니다~!', '들어가는  입구가  압권임내부  돌아보는덴   5시간 정도 걸링경치 좋고 관리 잘 됨', '여기 너무 좋네요.내부에 식당 및 식음료 판매시설이 전무한게 많이 아쉽긴 합니다.볼거리가 너무 많아 도시락 지참 후 중간에 식사하시고 계속 보셔야합니다.', '풍경 좋고 공기도 좋아요. 가로수길이 넘 예쁘네요.입장료는 6천원이고, 주차비는 없어졌나봐요.', '수유실도 있고 구경하기 좋아요', '월요일 휴무라 나와서 가다가 돌아올뻔함. 아직 꽃은 이르지만 벌써 덥기시작. 입장료가 쎄다.. 경로우대도 3000원 낸다. 욕을 많이 먹나보다 직원에게 잘 대해달라고 안내판이 있다.', '---', '만든것은 전두환이고 그래서인가 곳곳에 전두환위주로 전시된게 있어서 이부분을 아쉬워하는 분들 많을겁니다.이승만 박정희 관련도 많고요 정치이념적으로보다 자연이나 볼거리위주로 열린마음으로 봤으면 좋겟어요.노무현때 개방결정되서 국민들이 구경하게 되었는데 막상 노무현관련해서는 전시실이나 관련전시같은게 너무 없고 구석진곳에있네요.정치적은건 빼고 보면대청호수 보기 시원하고 좋고트인잔디밭 그리고 전망대 각종전시관까지 또 가고싶은곳이에요', '청주에서문의지나한생체험학습좋음', '산책로 매우 만족스럽습니다..시간되시는 분은 3시간 잡고 찬찬히 둘러보시면 좋을것 같아요…전 담에 한번더 가려고 1/2만 보고 나왔습니다..', '여유롭게 여러번 가야 볼수있겠어요. 이곳을 개방하지 않고 대통령의 휴식과 재충전의 공간으로 계속 사용했어도 좋았을걸 이란 생각을 했던', '너무 기대하고 가서 그런가 그만큼은 아닌것 같아요', '단풍철에는 진입부터 주차까지 엄청난 기다림이 필요했지만 구경하기는 좋았습니다.', '가족과 가을여행 강추', '산책, 나들이 하기에 좋고 정말 제대로 보려면 반나절 이상은 투자해야 할 것 같습니다.주차장 입구가 한 곳 뿐이라 피크타임에는 주차하기까지 시간이 꽤 걸립니다.', '과히 대통령 별장 답내요.다 둘러볼려면 아침일찍와서 하루종일 봐야 할 정돕니다.계절별로 와도 좋겠고 힐링하고산책하기 너무 좋습니다.', '최고의산책로', '너무 예뻐요~다만 사람이 너무 많으니 무조건 일찍 가야함', '산책로 포토존', '둘레길 등 경치가 정말 좋습니다.하지만 간다면 ☆오전에 가세요!!!!!오후 2시에 나오는데 그때 들어가는 줄이 5키로정도 되더라고요.. 최소1시간~2시간 걸려야 주차하실듯 했어요', '입장료가 아깝다. 경로, 아동 면제가 아예 없고 할인률도 적다. 관리가 안되어있고 직원이 없이 노인일자리 봉사자들이 서비스한다. 앉을 곳이 없고 볼것이 없다. 휠체어가 주차장에서 200미터 떨어져 있다. 충북도는 국고에 반납해라', '쉴곳이 너무없음여름은 절대 가지 말것타 죽음..', '초등모임에서충남,충북지역을 몇군데 들려청남대도갔는데 날이 더워 애를 먹었다.여행은 봄가을로다녀야 좋겠다.청남대가 넓어서 좋긴한데다둘러보기는 시간이애매하다.담에는 시원할때 가봐야겠다.', '다른 건 모르겠고 대통령 체험관이 재밌었습니다. 다음번엔 빈살만 코스프레라도 하고 가겠습니다. ㅋㅋ', '주차비 따로, 입장료 따로.', '여름이라 더웠는데.  봄 가을에 방문하면 너무 좋을듯해요', '십몇년만에 갔는데 변하긴 했네요. 뭐 가볼만 합니다. 그런데 기념품점에서 판매하는 마그네틱... 비싼데 자석이 너무므 약해서 아예 붙지를 않아요...ㅎㅎ', '과거 대통령 별장이었네요. 청와대 개방처럼 이곳도 개방돼서 그동안 대통령들의 휴식처를 볼 수 있어서 좋았습니다. 아름답네요. ㅎㅎ', '청남대 가는 길이 좋다~입장료 6천원, 깨끗하게 관리 되고 있음.그냥 한번쯤 가보는 것으로 충분하고애들 데리고 오기에는 놀 거리가 없고,단체 관람 인원들이 있어서 북적거림.그냥 숲에서 노는 거랑 비슷하다.본관, 별관 둘러보는 데 몇 분 안 걸림.', '주차하고 화장실 들렀다 도착하니 16:35 딱 5분 넘었는데 매표가 4시 반까지라고 칼같이 끊어버립니다.', '모든 사람들의 궁금점을 알수있는곳!!사람 사는곳은 다 똑같다!편의시설을 잘 가꾸어 놓은곳시간 넉넉히 잡고 가족들 나들이 하기 좋아요', '산책하기 좋아요', '1시간 근교에서 오실 수 있다면, 그래도 한번은 관람에도 좋은 곳으로, 여유로운 시간을 가지고 가야 그 넓은 곳을 다 볼 수가 있다. 하지만 걷기 좋아하는 건강한 분들에게만 허락된다. 만약 다 못 본다면 기념관(별관)과 음악분수와 메타세쿼이아 휴식, 약간은 오르기 힘들지만 전망대에는 꼭 가 보시길 추천 드린다. 그리고 김밥, 샌드위치, 음료등을 챙겨 가신다면 청남대로 소풍온 기분을 제대로 느끼실 것이다.', '공기 맑고 몇시간 산책하기 좋습니다.', '입장료는 성인 6천원에 주차료 2천원 별도입니다. 산책코스가 관리가 잘되어있었고 너무 넓어 다 둘러볼 수 없을 정도였습니다.', 'good', '전두환 기념하는 곳..제정신인지..', '늦가을에 갔었는데 청남대를 첨알았어요대통령휴가지 였다는데 전두환 사진이 많아서 툇!한번 해주고 경치는 아주 좋았어요코스가 좀 길어서 힘들었는데 고즈넉한 분위기군데군데 쉴만한 벤치랑 정자가 있어서 좋았어요대통령이 묵었던 별장도 가보고 여러가지로 특별한 경험이었어요', '관광지로서는 매력없음. 산책코스로는 최고.', '너무 예뻐요. 9월말까지는 예약안하고 들어갈수 있다고 하는데 이후에는 인터넷에서 예약하고 정문주차장에 차놓고 들어가세요!', '좋은 곳', '모든시설 관리 잘되어 있고 볼것도 많았어요^^', '후아 더울땐 가지말자 너무 뜨거뜨거대통령별장 건물은 시원함. 2002년도에 시간이 멈춰있어서 레트로 구경 가능', '오전시간이 오히려 복잡한 느낌', '산책하기도 좋고 사진찍기도 좋은 곳', '좋아요', '방문 계획이 있다면 무조건 인터넷으로 사전 차량 예약을…! 차량 예약하면 청남대 주차장 이용 가능. 아니면 매표소에서 버스로 약 20분 더 타고 들어가야 함', '넓고 힐링하기 좋으나, 다른 곳 대비 입장료가 센 것 같음.국화꽃 축제도 생각보다 작은 것 같은..', '지난달 8월 5일 방문 했습니다방문시. 직원 과 자원 봉사원 분들이 친절히 안내해주셨어요', '일주하려면 생각보다 많은 시간이 걸려요.괜히 대통령 별장이 아니었구나 싶습니다.아기자기함은 생각보다 적지만찬찬히 느긋하게 이것저것 구경하며 대통령된 기분으로 바람 쐬기에는 참 좋습니다.추천합니다~!', '더운 날씨만 아니었음 많은곳을 걸어봤을텐데...아쉬웠다...매우 잘조성되어있고 풍광이 입구부터 멋지네요...가을에 다시 한번 와야할듯~~', '역사의 진실이 살아있는 곳,경치도 아름답고 친절도 감사하고 힐링되는 곳이네요.', 'BAD', 'like it', '철조망이 없었으면 대청호가 더 빛났을것을,,,', '날씨좋을때 또와야지', '역대 대통령들의 역사....', '날씨가 더워서 힘들었는데 날씨만 좋으면 천천히 걸어다니면서 산책하기도 좋고 제 생각에는 유익하게 볼것도 많은거 같네요', '대청호를 끼고도는 대통령들의 별장이었던청남대 한번쯤은 꼭 가봐야할 여행지로 추천합니다.자전거길도 되어있어 라이딩도 좋습니다', '산책삼아서 돌아다니면 좋은데 무척 넓어서 쉬엄쉬엄가셔야 됩니다.', '청주여행 가볼만한 곳 청남대는 휴양 중에도 항상 국정을 수행할 수 있는 완벽한 시설을 갖춤은 물론 대청호 상수원 보호를 위해 최고의 수질정화 시스템을 구축, 운영하였다. 2003. 4. 18 노무현 대통령에 의해 관리권이 충청북도로 이양되고 일반인에게 개방되었다. 개방 시간은 오전 10시부터 오후 6시까지고 월요일은 개방을 하지 않는다. 승용차를 이용할 경우 청남대 홈페이지에서 사전 예약 및 결제를 하면 직접 차량으로 청남대 주차장으로 편하게 이동할 수 있다. 관계자는 "청남대가 역대 임시정부 행정수반과 대통령을 한자리에서 볼 수 있는 전국 유일의 대통령 테마 관광지이자 생태역사 공원으로 자리매김하게 될 것"이라고 말했다. 최근 청남대를 방문하는 탐방객들은 버스 승. 하차장과 대통령 기념관, 별관, 헬기장, 양어장, 어울림마당 등에서도 무료 와이파이 서비스를 이용할 수 있게 됐다.', '트레킹하기 좋은곳관광지는 아닌 듯하지만 관리하시는 직원분이 넘 친절해서 단체 어른들 다리 아프신데 건물 식당 잠시 대여도 해주시고 감사했음!대관할 수도 있었는데 상황이 안되었는데도 딱 잘라 거절않으시고 배려해주신 건 진짜 감사했음', '걷는거 좋아하면 추천~~ 여름엔 조금 고역일 수 있습니다만 숲길 들어가면 그늘도 많고 그래요', 'Presidential House', '봄,가을에 가면 좋은 곳이긴 한데대통령직 박탈된 전두환이는 좀 빼자..', '가을에 오면 정말 좋을듯~~', '최악 주차관리도 똑바로 안되고 매표도 이상하네요..', '단풍이 정말 아름답다']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>청주동물원</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>청주시 상당구 명암로 224</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['동물을 사랑하는 따뜻한 마음이 전해져오는 곳입니다. 구조되어 온 동물들을 보면서 많은 생각을 하게 하네요. 입장료도 저렴하니 다들 꼭 가보셨으면 좋겠습니다. 시내버스 863번 타고 들어갈 수 있어 대중교통 접근성도 좋은 편이에요.현재 일부 구간 공사 중이지만 동선 안내가 잘 되어있어서 관람하기 불편하진 않았어요. 의미있는 시간이었습니다.호랑이가 매우 잘생겼습니다']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>대청댐전망대</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>청주시 상당구 문의면 대청호반로 206</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['세종 대전 청주 자전거 라이더들의 성지 중하나로 막판 업힐이 좀 부담스럽지만 이를 제외하면 구간도 평이하고 대청호 전망도 아름다워 라이더라면 꼭 가 보기를 추천함대청호 조마을 위해 일반인들도 많이 찾는 관광 명소로 주차도 편리하고 편의점, 화장실도 깔끔하게 잘 마련되어 있어 특히 라이더들이 찾기 좋은 장소임세종에서는 거리가 조금 되기 때문에 초보 라이더의 경우 체력이 소진된 막판 업힐이 매우 힘들 수 있어 너무 더운 여름철에는 끌바를 해야 할 수도 있으니 가급적 조금은 시원한 계절에 다녀 올 것을 추천함', '대청댐을 조망할 수 있는 작은 전망대.시설은 매점과 화장실 전망대의 정자가 전부지만 대청호 드라이브 중간에 쉼표를 찍을 수 있는 좋은 곳이다.', '대청댐 나들이 가기 너무 좋아요~꽃들도 예쁘게 피고 현암정 호떡은 인기 터짐, 맛있음!', '꾸불꾸불 산길코스나들이 전망좋은', '대청호 상류에서 바라보는 전망대이다. 거창한 규모는 아니고 주차장, 작은 매점, 정자와 데크가 전부이다. 전망이 마치 다도해의 풍경을 연상시킨다. 데크 자체는 관리가 잘 되는 느낌은 아니었지만, 화장실은 깨끗했다.', '한번쯤 들러보면좋습니다반대편에 청남대도', '지저분하고 별로 대청댐휴게소 쪽이 훨나음', '대전 사람들의 정해진 드라이브 코스', '뷰가 괜찮습니다.', '평일 오전에 가니 고즈넉한 풍광이 좋았고 공기가 맑아서  많이 걸을수 있어서 좋았음 특히,매점옆에서 파는 호떡이 맛있음공사중이라 댐을 건널수 없다는점은 아쉬움', '나들이', '전망 좋은 장소. .', 'RIP. Coinrer.. recommend use Ledger to Keep safe hers Asset.', '확 뚫린 전망은 아님.', '여름에 시원하네요', '전망 좋고 조용하고 바람소리와 새소리 좋은데여기와서 굳이 담배 피우는 아재들의 테러. . . 에휴우!', '눈오는날 운치있고  좋았어요', '완전이뻐용ㅎㅎ구냥물구경하뉸곳!', '호수 정비가 아주 잘 되어있는듯 보이네요.미세먼지 없는 날 풍경이 너무 좋아보입니다', '비가내려 물콸콸 물 방류 보려했는데 여기가 아니다더 내려가야한다는 ...대청  문화관으로 가야함 진짜여긴 안보이는 전망대', '얼심히 찾아서 갔는데, 막고 있는 나무가 많아서 전망대치고는 잘 안 보였어요.', '가끔씩 찾아가는 장소. 주변 경관이 좋아요', '속시원하게 잘다녀왔어요.', '뭐냐 예전에 쓰레기통에 차에쓰레기 조금있던거 버린다고 발광했던 아줌마 때문에 기분 졸라나빠서 두번 다시안올거라고 한댓글 누가지움??그리고 댓글지운다고 달았던 사람이 모를줄아나?이미  입소문 다타고 나갔지', '드라이브 코스겸 뷰를 관람한다면... 굿입니다~^^', '대청댐전망대']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>상당산성</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>청주시 상당구 산성동 산 28-2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['산성따라 걷는길도 무척이나 장엄하고 아름답지만 성 안에 있는 길도 상당히 정비가 잘되어있고 예쁜꽃들이 즐비합니다 4,5시 노을질무렵 아이스크림 하나 물고 걷다보면 아름다운 풍경에 힐링이 되는곳']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/test4.xlsx
+++ b/test4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,97 +453,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>청남대</t>
+          <t>활옥동굴</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>청주시 상당구 문의면 청남대길 646</t>
+          <t>충주시 목벌안길 26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['무료주차/ 유료입장료수갑찬 대통령은 좀 뺐으면..한번쯤 가기 좋은 곳, 두시간 좀 넘게 보고 왔어요 가족끼리 가기 좋은곳, 본관 내부도 볼만함하지만 훌륭하지 않은 부끄러운 대통령도 계속 등장(?)해서 자녀 교육 할때 애좀 먹었네요.. 수갑찬 대통령은 좀 뺐으면..', '가을 단풍 경치와 주위 경관은 너무 너무 좋습니다. 그러나 청남대 가는데 입구 진입에서 한시간 주차하다시피 느리게 이동해야 합니다. 입장해서는 가장 아름다운 곳 중심에 요새같은 별장에서 지냈을 역대 대통령 중 몇몇의 모습이 연상되었어요. 그 시대에 그 시설, 그들을 위해 군인들의 보초 섰을 상황이 현실적으로 그려지더군요. 역사 사진도 있고요. 영상 자료인지 뭐도 보러가고 하던데 전 그냥 패스 했습니다. 씁쓸한 마음에 얼굴이 좀 구겨지던 찰나 앞에 가시던 어른분이 하시던 말씀이 기억납니다. "아주 호사를 누렸구만!" 네 동감합니다. 풍경과 단풍 사진 명소에서 사진 찍으시고요 역사의 현실과 진실도 알고 가시면 좋을 것 같네요. 전 자주 갈 것 같진 않아요.', '과거에도 3회 정도 다녀왔는데, 이번에 갔더니 시설물들이 더욱 늘었고 볼거리도 많아졌네요!계절마다 즐길거리가 풍성합니다.꼭 가보시길 강추합니다~!', '들어가는  입구가  압권임내부  돌아보는덴   5시간 정도 걸링경치 좋고 관리 잘 됨', '여기 너무 좋네요.내부에 식당 및 식음료 판매시설이 전무한게 많이 아쉽긴 합니다.볼거리가 너무 많아 도시락 지참 후 중간에 식사하시고 계속 보셔야합니다.', '풍경 좋고 공기도 좋아요. 가로수길이 넘 예쁘네요.입장료는 6천원이고, 주차비는 없어졌나봐요.', '수유실도 있고 구경하기 좋아요', '월요일 휴무라 나와서 가다가 돌아올뻔함. 아직 꽃은 이르지만 벌써 덥기시작. 입장료가 쎄다.. 경로우대도 3000원 낸다. 욕을 많이 먹나보다 직원에게 잘 대해달라고 안내판이 있다.', '---', '만든것은 전두환이고 그래서인가 곳곳에 전두환위주로 전시된게 있어서 이부분을 아쉬워하는 분들 많을겁니다.이승만 박정희 관련도 많고요 정치이념적으로보다 자연이나 볼거리위주로 열린마음으로 봤으면 좋겟어요.노무현때 개방결정되서 국민들이 구경하게 되었는데 막상 노무현관련해서는 전시실이나 관련전시같은게 너무 없고 구석진곳에있네요.정치적은건 빼고 보면대청호수 보기 시원하고 좋고트인잔디밭 그리고 전망대 각종전시관까지 또 가고싶은곳이에요', '청주에서문의지나한생체험학습좋음', '산책로 매우 만족스럽습니다..시간되시는 분은 3시간 잡고 찬찬히 둘러보시면 좋을것 같아요…전 담에 한번더 가려고 1/2만 보고 나왔습니다..', '여유롭게 여러번 가야 볼수있겠어요. 이곳을 개방하지 않고 대통령의 휴식과 재충전의 공간으로 계속 사용했어도 좋았을걸 이란 생각을 했던', '너무 기대하고 가서 그런가 그만큼은 아닌것 같아요', '단풍철에는 진입부터 주차까지 엄청난 기다림이 필요했지만 구경하기는 좋았습니다.', '가족과 가을여행 강추', '산책, 나들이 하기에 좋고 정말 제대로 보려면 반나절 이상은 투자해야 할 것 같습니다.주차장 입구가 한 곳 뿐이라 피크타임에는 주차하기까지 시간이 꽤 걸립니다.', '과히 대통령 별장 답내요.다 둘러볼려면 아침일찍와서 하루종일 봐야 할 정돕니다.계절별로 와도 좋겠고 힐링하고산책하기 너무 좋습니다.', '최고의산책로', '너무 예뻐요~다만 사람이 너무 많으니 무조건 일찍 가야함', '산책로 포토존', '둘레길 등 경치가 정말 좋습니다.하지만 간다면 ☆오전에 가세요!!!!!오후 2시에 나오는데 그때 들어가는 줄이 5키로정도 되더라고요.. 최소1시간~2시간 걸려야 주차하실듯 했어요', '입장료가 아깝다. 경로, 아동 면제가 아예 없고 할인률도 적다. 관리가 안되어있고 직원이 없이 노인일자리 봉사자들이 서비스한다. 앉을 곳이 없고 볼것이 없다. 휠체어가 주차장에서 200미터 떨어져 있다. 충북도는 국고에 반납해라', '쉴곳이 너무없음여름은 절대 가지 말것타 죽음..', '초등모임에서충남,충북지역을 몇군데 들려청남대도갔는데 날이 더워 애를 먹었다.여행은 봄가을로다녀야 좋겠다.청남대가 넓어서 좋긴한데다둘러보기는 시간이애매하다.담에는 시원할때 가봐야겠다.', '다른 건 모르겠고 대통령 체험관이 재밌었습니다. 다음번엔 빈살만 코스프레라도 하고 가겠습니다. ㅋㅋ', '주차비 따로, 입장료 따로.', '여름이라 더웠는데.  봄 가을에 방문하면 너무 좋을듯해요', '십몇년만에 갔는데 변하긴 했네요. 뭐 가볼만 합니다. 그런데 기념품점에서 판매하는 마그네틱... 비싼데 자석이 너무므 약해서 아예 붙지를 않아요...ㅎㅎ', '과거 대통령 별장이었네요. 청와대 개방처럼 이곳도 개방돼서 그동안 대통령들의 휴식처를 볼 수 있어서 좋았습니다. 아름답네요. ㅎㅎ', '청남대 가는 길이 좋다~입장료 6천원, 깨끗하게 관리 되고 있음.그냥 한번쯤 가보는 것으로 충분하고애들 데리고 오기에는 놀 거리가 없고,단체 관람 인원들이 있어서 북적거림.그냥 숲에서 노는 거랑 비슷하다.본관, 별관 둘러보는 데 몇 분 안 걸림.', '주차하고 화장실 들렀다 도착하니 16:35 딱 5분 넘었는데 매표가 4시 반까지라고 칼같이 끊어버립니다.', '모든 사람들의 궁금점을 알수있는곳!!사람 사는곳은 다 똑같다!편의시설을 잘 가꾸어 놓은곳시간 넉넉히 잡고 가족들 나들이 하기 좋아요', '산책하기 좋아요', '1시간 근교에서 오실 수 있다면, 그래도 한번은 관람에도 좋은 곳으로, 여유로운 시간을 가지고 가야 그 넓은 곳을 다 볼 수가 있다. 하지만 걷기 좋아하는 건강한 분들에게만 허락된다. 만약 다 못 본다면 기념관(별관)과 음악분수와 메타세쿼이아 휴식, 약간은 오르기 힘들지만 전망대에는 꼭 가 보시길 추천 드린다. 그리고 김밥, 샌드위치, 음료등을 챙겨 가신다면 청남대로 소풍온 기분을 제대로 느끼실 것이다.', '공기 맑고 몇시간 산책하기 좋습니다.', '입장료는 성인 6천원에 주차료 2천원 별도입니다. 산책코스가 관리가 잘되어있었고 너무 넓어 다 둘러볼 수 없을 정도였습니다.', 'good', '전두환 기념하는 곳..제정신인지..', '늦가을에 갔었는데 청남대를 첨알았어요대통령휴가지 였다는데 전두환 사진이 많아서 툇!한번 해주고 경치는 아주 좋았어요코스가 좀 길어서 힘들었는데 고즈넉한 분위기군데군데 쉴만한 벤치랑 정자가 있어서 좋았어요대통령이 묵었던 별장도 가보고 여러가지로 특별한 경험이었어요', '관광지로서는 매력없음. 산책코스로는 최고.', '너무 예뻐요. 9월말까지는 예약안하고 들어갈수 있다고 하는데 이후에는 인터넷에서 예약하고 정문주차장에 차놓고 들어가세요!', '좋은 곳', '모든시설 관리 잘되어 있고 볼것도 많았어요^^', '후아 더울땐 가지말자 너무 뜨거뜨거대통령별장 건물은 시원함. 2002년도에 시간이 멈춰있어서 레트로 구경 가능', '오전시간이 오히려 복잡한 느낌', '산책하기도 좋고 사진찍기도 좋은 곳', '좋아요', '방문 계획이 있다면 무조건 인터넷으로 사전 차량 예약을…! 차량 예약하면 청남대 주차장 이용 가능. 아니면 매표소에서 버스로 약 20분 더 타고 들어가야 함', '넓고 힐링하기 좋으나, 다른 곳 대비 입장료가 센 것 같음.국화꽃 축제도 생각보다 작은 것 같은..', '지난달 8월 5일 방문 했습니다방문시. 직원 과 자원 봉사원 분들이 친절히 안내해주셨어요', '일주하려면 생각보다 많은 시간이 걸려요.괜히 대통령 별장이 아니었구나 싶습니다.아기자기함은 생각보다 적지만찬찬히 느긋하게 이것저것 구경하며 대통령된 기분으로 바람 쐬기에는 참 좋습니다.추천합니다~!', '더운 날씨만 아니었음 많은곳을 걸어봤을텐데...아쉬웠다...매우 잘조성되어있고 풍광이 입구부터 멋지네요...가을에 다시 한번 와야할듯~~', '역사의 진실이 살아있는 곳,경치도 아름답고 친절도 감사하고 힐링되는 곳이네요.', 'BAD', 'like it', '철조망이 없었으면 대청호가 더 빛났을것을,,,', '날씨좋을때 또와야지', '역대 대통령들의 역사....', '날씨가 더워서 힘들었는데 날씨만 좋으면 천천히 걸어다니면서 산책하기도 좋고 제 생각에는 유익하게 볼것도 많은거 같네요', '대청호를 끼고도는 대통령들의 별장이었던청남대 한번쯤은 꼭 가봐야할 여행지로 추천합니다.자전거길도 되어있어 라이딩도 좋습니다', '산책삼아서 돌아다니면 좋은데 무척 넓어서 쉬엄쉬엄가셔야 됩니다.', '청주여행 가볼만한 곳 청남대는 휴양 중에도 항상 국정을 수행할 수 있는 완벽한 시설을 갖춤은 물론 대청호 상수원 보호를 위해 최고의 수질정화 시스템을 구축, 운영하였다. 2003. 4. 18 노무현 대통령에 의해 관리권이 충청북도로 이양되고 일반인에게 개방되었다. 개방 시간은 오전 10시부터 오후 6시까지고 월요일은 개방을 하지 않는다. 승용차를 이용할 경우 청남대 홈페이지에서 사전 예약 및 결제를 하면 직접 차량으로 청남대 주차장으로 편하게 이동할 수 있다. 관계자는 "청남대가 역대 임시정부 행정수반과 대통령을 한자리에서 볼 수 있는 전국 유일의 대통령 테마 관광지이자 생태역사 공원으로 자리매김하게 될 것"이라고 말했다. 최근 청남대를 방문하는 탐방객들은 버스 승. 하차장과 대통령 기념관, 별관, 헬기장, 양어장, 어울림마당 등에서도 무료 와이파이 서비스를 이용할 수 있게 됐다.', '트레킹하기 좋은곳관광지는 아닌 듯하지만 관리하시는 직원분이 넘 친절해서 단체 어른들 다리 아프신데 건물 식당 잠시 대여도 해주시고 감사했음!대관할 수도 있었는데 상황이 안되었는데도 딱 잘라 거절않으시고 배려해주신 건 진짜 감사했음', '걷는거 좋아하면 추천~~ 여름엔 조금 고역일 수 있습니다만 숲길 들어가면 그늘도 많고 그래요', 'Presidential House', '봄,가을에 가면 좋은 곳이긴 한데대통령직 박탈된 전두환이는 좀 빼자..', '가을에 오면 정말 좋을듯~~', '최악 주차관리도 똑바로 안되고 매표도 이상하네요..', '단풍이 정말 아름답다']</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>청주동물원</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>청주시 상당구 명암로 224</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>['동물을 사랑하는 따뜻한 마음이 전해져오는 곳입니다. 구조되어 온 동물들을 보면서 많은 생각을 하게 하네요. 입장료도 저렴하니 다들 꼭 가보셨으면 좋겠습니다. 시내버스 863번 타고 들어갈 수 있어 대중교통 접근성도 좋은 편이에요.현재 일부 구간 공사 중이지만 동선 안내가 잘 되어있어서 관람하기 불편하진 않았어요. 의미있는 시간이었습니다.호랑이가 매우 잘생겼습니다']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>대청댐전망대</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>청주시 상당구 문의면 대청호반로 206</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>['세종 대전 청주 자전거 라이더들의 성지 중하나로 막판 업힐이 좀 부담스럽지만 이를 제외하면 구간도 평이하고 대청호 전망도 아름다워 라이더라면 꼭 가 보기를 추천함대청호 조마을 위해 일반인들도 많이 찾는 관광 명소로 주차도 편리하고 편의점, 화장실도 깔끔하게 잘 마련되어 있어 특히 라이더들이 찾기 좋은 장소임세종에서는 거리가 조금 되기 때문에 초보 라이더의 경우 체력이 소진된 막판 업힐이 매우 힘들 수 있어 너무 더운 여름철에는 끌바를 해야 할 수도 있으니 가급적 조금은 시원한 계절에 다녀 올 것을 추천함', '대청댐을 조망할 수 있는 작은 전망대.시설은 매점과 화장실 전망대의 정자가 전부지만 대청호 드라이브 중간에 쉼표를 찍을 수 있는 좋은 곳이다.', '대청댐 나들이 가기 너무 좋아요~꽃들도 예쁘게 피고 현암정 호떡은 인기 터짐, 맛있음!', '꾸불꾸불 산길코스나들이 전망좋은', '대청호 상류에서 바라보는 전망대이다. 거창한 규모는 아니고 주차장, 작은 매점, 정자와 데크가 전부이다. 전망이 마치 다도해의 풍경을 연상시킨다. 데크 자체는 관리가 잘 되는 느낌은 아니었지만, 화장실은 깨끗했다.', '한번쯤 들러보면좋습니다반대편에 청남대도', '지저분하고 별로 대청댐휴게소 쪽이 훨나음', '대전 사람들의 정해진 드라이브 코스', '뷰가 괜찮습니다.', '평일 오전에 가니 고즈넉한 풍광이 좋았고 공기가 맑아서  많이 걸을수 있어서 좋았음 특히,매점옆에서 파는 호떡이 맛있음공사중이라 댐을 건널수 없다는점은 아쉬움', '나들이', '전망 좋은 장소. .', 'RIP. Coinrer.. recommend use Ledger to Keep safe hers Asset.', '확 뚫린 전망은 아님.', '여름에 시원하네요', '전망 좋고 조용하고 바람소리와 새소리 좋은데여기와서 굳이 담배 피우는 아재들의 테러. . . 에휴우!', '눈오는날 운치있고  좋았어요', '완전이뻐용ㅎㅎ구냥물구경하뉸곳!', '호수 정비가 아주 잘 되어있는듯 보이네요.미세먼지 없는 날 풍경이 너무 좋아보입니다', '비가내려 물콸콸 물 방류 보려했는데 여기가 아니다더 내려가야한다는 ...대청  문화관으로 가야함 진짜여긴 안보이는 전망대', '얼심히 찾아서 갔는데, 막고 있는 나무가 많아서 전망대치고는 잘 안 보였어요.', '가끔씩 찾아가는 장소. 주변 경관이 좋아요', '속시원하게 잘다녀왔어요.', '뭐냐 예전에 쓰레기통에 차에쓰레기 조금있던거 버린다고 발광했던 아줌마 때문에 기분 졸라나빠서 두번 다시안올거라고 한댓글 누가지움??그리고 댓글지운다고 달았던 사람이 모를줄아나?이미  입소문 다타고 나갔지', '드라이브 코스겸 뷰를 관람한다면... 굿입니다~^^', '대청댐전망대']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>상당산성</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>청주시 상당구 산성동 산 28-2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>['산성따라 걷는길도 무척이나 장엄하고 아름답지만 성 안에 있는 길도 상당히 정비가 잘되어있고 예쁜꽃들이 즐비합니다 4,5시 노을질무렵 아이스크림 하나 물고 걷다보면 아름다운 풍경에 힐링이 되는곳']</t>
+          <t>['한여름   그러나 그안은  한 가을  ㅎㅎ나가기 싫었어요  시원  재미  흥미  사진이 화려하게 나오네요^^', '여름에 피서하기 딱이에요!', '첨엔 재밌다가 가면갈수록 재미없음....겁나 춥고 냄시남특히 고추냉이 냄시', '동굴이 에어컨 가동중인것 만큼 시원하니 여름마다 방문하고 싶음', '활옥동굴 안 간이화장실 냄새  많이 나요, 반드시 입장 전에  화장실 다녀오시고, 더운 날씨에 가족들과 방문하기 괜찮아요.', '한 여름에도 긴팔 옷 필수 지참하세요', '한여름이라 상당히 시원해서 4점드립니다.볼거리는 딱히 없습니다.', '많이 선선합니다.겉옷 챙겨가시길근데 기대를 많이 했나뭔가 많이 아쉽네요. 유치한 조형물과 주제없이 그냥 이것저것 다 가져다 만들어놓은 느낌.과거 역사를 알수 있는 사진들은 한자 투성이에특색있는 공간을 잘 살리지 못해 많이 안타까웠네요. 이대로라면 재방문 의사 없네요.', '폭염속에 입구앞만 가도 시원한 공기가 쏟아져 나온다. 인공동굴이라 굴이 넓고 높다. 하지만 자연동굴 처럼 우와~ 하면서 걸어갈게 없다보니 어느시점부턴 지루하다...주말엔 교통정체 감안하고 가야함', '시원한디 내부는 구려요그리고 와사비 아이스크림 먹지마세요 바닐라 아이스크림 끝에 생와사비맛 나서 와사비 앵간히 좋아하는 사람 아니고선..', '무더운 여름 가면 좋은 곳이예요동굴안이 너무 시원해요주차장도 잘 구비되여서 먼주차장에 주차해도 셔틀버스운행하니 너무 편해요무더운 여름 추천합니다', '동굴 색감이 이뻤고 일단 시원했습니다.ㅡㅡㅋ 전 긴팔대신 쿨토시 장착하고 봤는데 열많은 타입은 반팔로도 조금 춥게 느껴질정도 (중간에 토시 뺐어요)', "최근에 가족과 함께 충주 활옥동굴을 방문했어요. 수도권에서 가까워서 드라이브하기 좋은 코스였고, 예전에는 활석과 옥석을 채광하던 광산이라 '활옥동굴'이라는 이름이 붙었다고 하네요. 동굴 입구부터 시원한 기운이 느껴져서 더운 여름날 방문하기 딱 좋았어요.동굴 내부는 생각보다 넓고 다양한 볼거리가 많았어요. 특히, 동굴 내에서 카약을 탈 수 있는 체험이 인상적이었어요. 가족 모두가 함께 즐길 수 있어서 좋았답니다. 동굴 곳곳에는 예쁘게 꾸며진 조형물들이 있어 사진 찍기에도 좋았어요. 아이들이 좋아할 만한 야광벽화와 해양생물 테마의 공간도 있었고, 중간중간 쉴 수 있는 공간도 잘 마련되어 있어서 편하게 관람할 수 있었어요.동굴 내부에는 예전 광산에서 사용하던 권양기와 시갱운반차도 그대로 보존되어 있어 역사적인 느낌도 물씬 났어요. 동굴 끝쪽에는 와인 저장고가 있어서 와인도 맛볼 수 있었고, 동굴 카페에서는 와사비 아이스크림 같은 독특한 메뉴도 즐길 수 있었어요.활옥동굴은 가족 나들이로 정말 추천할 만한 곳이에요. 다양한 체험과 볼거리가 많아서 아이들과 함께 방문하기에 딱 좋았답니다. 다음에 또 방문하고 싶어요!", '가성비갑', '동굴 입구부터 너무 시원해요~ 종종 물이 떨어지고, 추운 곳 있어서 담요, 수건, 긴팔옷 챙기면 좋아요~동굴 걷기에 힘들지 않고 지루하지 않아요~관광객들 많이 보이고, 애들도 잼있어해요~와사비 키우는 것과 투명카누 철갑상어 신기해요~', '너무 더운날 굉장히 추운 경험중학생 아이들과 즐거운 추억이 좋았네요', '더위식힐때 최고.입구서부터 시원.어르신이나 아이들동반시 얇은외투 필수입니다.추울수가있어요.보트시간따로없어요.마으므껏타시고.안전요원분들 피곤하시나바요.표정이상함ㅋㅋ멘붕표정.와사비.소프특콘 강추입니다.꼭드세요.다음에 또가려구요.', '더위 피하기 좋은곳 동굴안에 보트 타고 물놀이는 아이들 좋아하고 어른은 숙성와인 종류별로 맛보며 즐길수 있어 좋아요 #카약체험 #피서', '카약체험이 재밌는데 조금 더 길면 참 좋을 듯.동굴 내 식물 키우는 것도 그렇고 장소와 어울리지 않는 반전의 재미가 있는 곳.', '이것저것 볼거리도 다양하고, 특히 여름에 가면 시원해서 좋아요', '입장료에 비해 뭔가 ~아쉽지만~한번쯤은 와볼만한곳~~^^투명보트 너무 무서움 ㅎ 물속에 상어가?있었다는걸 미리알았더라면~~^^더재미났을듰~~', '시설 볼거리가 많아서 좋았어요너무 추워서 입장하실때겉옷 준비하세요', '볼거리가 많아요~여름에 가면 동굴 안이 굉장히 추우니 담요나 두툼한 여벌옷 꼭 챙겨가세요~~투명 카약체험도 재밌으니 꼭 해보세요 카약이 투명해서 밑으로 철갑상어 지나가는 것도 다 보여용😆', '다양한 테마와 크고 평평한 동굴탐방이 쉽고 재미있게 개발되어 있더군요. 카약체험이 특히 좋았습니다.', '동굴안에서 카약을 탄데서 색다를것 같아 아이들과 가보았는데... 카약은 5분~10분사이로만 탑니다. 되도록 천천히 노저으세영... 안그럼 한바퀴 돌면 끝이라 바로 나와야 해요. 카약타는 공간이 생각보다 적고 한바퀴 도는거라 짧아요. 한 리뷰보고 갔는데 동남아에서 카약타고 놀던게 생각나서 갔던건데... 어.. 에게? 합니다. 애들도 이게 끝이야.... 합니다... 하지만 동굴자첸 광산이라 역사도 있고 동굴벽이 희고 평지라서 다니기 편합니다. 안에 좌욕공간도 있고 와인판매하는데도 있습니다. 화장실은 입구쯤하나 있는데 여자화장실은 암모니아가스에 질식할 정도라 되도록 밖에서 볼일 보고 오셔야해요.  동굴 가장 안쪽으로는 화장실 없어요.  조명 이런거 해놔서 그냥 눈요기하며보기  좋고 야광으로 색칠된 공간 이쁩니다.', '하루 코스로 딱...나름 재미있었음', '충주에 이런곳이 있덨다니! 생각보다 크고 재미있어요 :)데이트 하기도 좋고, 가족여행으로도 좋아요.카약은 줄이 좀 길지만 꼭 타야 됩니당 :)', '성인 1명 티켓이 만원인 것에 비해 컨텐츠나 규모가 아쉬움와인은 시음도 안돼서 구매욕이 안생김동굴 규모는 커 보이나 인공적인 느낌이 강함강원도에 있는 동굴이나 광명 동굴에 비하면 한없이 부족함큰 기대 안하고 가볍게 오는 걸 추천', '활옥동굴은 평균기온 11~15℃로, 여름에 시원하고 겨울에 따뜻하다고 합니다.', '동굴에서 산 와사비 절임과 사과떡, 과실주임.할인은 한국도로공사 충북 카카오톡 친구추가-&gt;충주휴게소에서 1만원 이상 구입한 영수증 첨부-&gt;할인쿠폰 발급 (휴게소에서 쿠폰 주는건 끝났음 2024 3월 기준)쿠폰 하나당 1명만 할인으므로 각각 다 받아야함.동굴안 보트 타는 곳에만 사람 많음.그냥 키즈카페 투명 카약 타는 것과 같음.사과떡, 와사비절임, 과실주 맛있음.(동굴을 갔는데 먹을게 가장 마음에 듬)보고있나 김선태?덕분에 충주가 생각나서 급하게 호텔 예약하고 다녀옴.지금 탄금호에 유람선 타러 가는 중', '4시쯤 도착1. 보트 마감 됐다고 못탐2. 고추냉이 없어서 못 삼 3. 와인 시음 안됨충주에 즐길 만한건 여기 뿐인것 같은데 늦게 가니 할게 없더라고요갈거면 일찍 가시길…. 전 충주에 온천 말고는 딱히 할게ㅜ없어서 안올듯여… 온천도 노후 됐고 하필 오늘 오는 사람이 많아서 서울에서 4시간이나 걸려서 왔어요….', '누군가 여길 추천한다면 그 사람은 피하시길', '생각보다 길고 잘 되어있어서 놀랐어요동굴 안은 실내처럼 안 추워요구조물 많고 사진 찍을 스팟도 은근 많아요', '한번쯤 가볼만한곳 카누체험 꼭하세요~', '걷기 편하게 잘 다듬은곳이였고~ 사진찍을만한곳도 많았고,히든인 카약도 탔어요~카약은 거리가 좀 아쉬웠어요', 'ㄱㄴㄷ○○○ㅈ', '카약체험 한번정도는 해볼만한대 굳이 추천하진 않습니다.넓어서 걷긴 좋아요.', '장애인비장애인 관람가능해서 좋아요.', '돈이 하나도 안아까워요 뭐가 엄청 많음ㅋㅋㅋㅋㅋ 조형물들 멀리서 보면 조악한데 가까이서 보면 디테일 장난아님', '어머니께서 휠체어 타시고 갈 동굴은 여기뿐이고 다녀온 사람들 엄청 칭찬해서 갔는데요! 그냥 하얀옥을 캔 휑그랑한 동굴에 아기자기 레이저 같은것은 색깔 라이트로 데코레이트한 동굴입니다. 안에 그렇게 크지 않은 연못을 만들고 거기에 물고기 숭어 철갑상어 다니게 하고 카약 보트타고 손수 노를 저으며 다니는 놀이 있습니다. 여행많이 다니고 좋은것 많이 본 사람들에겐 그렇게 만점은 아니고요! 여행이 처음이거나 노인분들에게는 나쁘지 않을듯 합니다. 동굴 밖에도 연못과 꽃들을 장식해서 쉴만한것이 좋았어요. 꼭 옷을 두껍게 노약자는 담요을 몇장 들고가야합니다~!! 젊은이들은 시원함을 즐기세요~ 저 아줌마 개인의 눈높이는 3.5! 평균은 4점 정도에요!', '넓은 터널에 놀라고 부지에 놀라고 역사의 내용에 또한번 놀랐습니다. 엄청난곳입니다~', '아크릴보트 아주 재미있었습니다의외로 즐겁게 탔습니다평일에 가시는 것 추천합니다!', '생각했던거보다 규모가 있어요~ 동굴안이 다 평지여서 영유아랑 가기에도 좋습니다만 성인기준 입장료 2천원정도 내리면 좋겠어요😜😜 더운여름철에 한번쯤 가기 좋습니다~', '단양 고수동굴처럼 좁고 오르락내리락하는 동굴이 아니라 매우 널찍하고 사실상 경사가 없어 평이함. 가족 단위로 가볍게 즐기기는 좋으나 동굴을 누빈다는 재미는 기대하지 말 것. 유명한 보트 탑승도, 경로가 100m 남짓으로 매우 짧을 뿐 아니라 여유는 없이 후발 보트에 치여 급히 이동해야 해 불과 5분 만에 끝남. 전형적인 한탕식 관광상품으로서 입장료의 가치가 의문스러움.', '월요일 휴무. 동굴이라 외부 기온과 다르니 여름에는 따뜻한 외투가 필수.동굴 저 안 쪽에서 운영하는 카약(투명 플라스틱 2인승 배) 체험이 있으나, 좁은 공간에서 몇 분 노를 저어 보는 흉내 수준이니 너무 기대는 마시길.관리 수준이 좀 더 높아진다면 금상첨화일듯.홈피 (휴장일 확인에 필수): www.instagram.com/jadecave_chungju', '여름인데 추웠음. 주차장이 넓지만 인기가 많아 꽉차있는데문제는 보트탈 때 사람 많으면 직원들이 보트 손으로 밀고 당겨서 웨이팅은 1시간 반, 타는건 3분컷', '동굴은 아이도 저도 즐거웠지만 입구쪽에 있는 체험수업은 정말 비추합니다.동그란돌 두개에 아크릴 물감만 덜렁 주고서만원이라니요... 아이가 밖에 전시된 그림보고 하고자해서했지만  돌멩이에 아크릴 물감만 바르고 나왔네요포장은 떡집에서 떡 포장마냥 종이 트레이에 비닐 담아서 주는데 참.. 이게 뭔가요...', '신기한 동굴탐험', '찬찬히 둘러보기 좋네요…아이들 볼꺼리도 많고요..카약체험도 좋고요…코스가 짧긴헌데…동굴안이라 애들하고 많이들 타시네요', '엄청 시원하고 생각보다 커요.보트는 사람없다면 타볼만한데 한시간씩 기다려서 탈정돈 아니에요^^!애기들이랑 가면 좋을거 같고 겉옷필수', '겁나 시원함', '무더운 여름에 시원한 날씨를 만나기에 좋은 곳 !', '카약체험', '지인들과 아이들과 이번엔 부모님과 세번째 방문이네요. 첨보다 입장료도 올랐고 그래서인지 고추냉이식물원등 없었던 시설들이 보이기도 했어요. 동굴안에서 카약을 타는 이색적인 체험도 좋구 한번쯤은 가볼만한 곳 이라고 생각해요! 부모님이 좋아하셔서 좋았습니다^^', '카약체험 심플, 시원해', '다 좋은데 너무밀렸어요 투명카약 시간도 짧고 대기가 한시간 이상', '동굴 내부가 15도 정도 된다고 하니까 겉옷 챙겨가세요', '더울때 들가서 더위 식히고 구경하기 좋음.  광질하던 동굴이라 길도 다니기 좋게 닦아있고 허리구부리며 다니는 동굴하고는 다른느낌 카약은 비추 뭐 잠깐 타고 돈 받음', '한여름 시원하게 잘다녀왔어요 엄청 넓고 추워요', '시원하다못해 추워서 더위 피하기 좋음. 특히 한여름에, 카약체험 재밌지만 5분이라 짧음', '충주 방문한다면 한 번쯤은 와봐도 좋은 것 같아요~ 시원하고 넓고 좋네요', '생각보다 크고 시원하고 좋네요', '여름에 시원하게 한번은 와볼만한 곳 근데 너무 비싸요 쓸데없이', '안에 정말 시원하네요..추울정도입니다.겉옷챙겨가세요!', '개장하기전 다녀왔는데그때도 넘시원하고 좋았는데지금은 보트체험까지 한다니 꼭 가봐야할 동굴', '부모님과 다녀왔는데 길이 평평?해서 다리불편한 저희부모님도 잘걸어다니셨어요 중간중간 의자도있어서 잠시 쉬었다가도되구요 동굴안에 임시화장실도 있으나 되도록 밖에서 해결하세요 농원?두 있으나 와사비만있구요 와인동굴은 입장료따로있어요 아 아래글보니까 음료챙겨가라고 하시는데  외부음식반입금지입니다  입구에서 다 놓구나가요  카약은 대기시간1시간30분이라해서 표안끊었는데 타는거보니까 그냥 보는게 나을거같더라구요  동굴안에 오락실도있어서  애들이랑가면 심심하진 않을거예요', '동굴길이도 길고주변시설도 좋아요.무더운 날씨에 들어갔는데조금 지나자 온몸에 한기가 돌 정도로 시원합니다.내부조명도 화려하고 그 안에 여러 뷰 포인트가 있어 좋았어요..', '카약은  타지 마세요.무엇을 상상하든 그 이하를 경험하실겁니다.', '가족들과 방문하기 좋은 문화멀티플렉스 동굴!주말엔 사람이 많아서 입장료 대기줄이 길지만 그 더위를 싹 날려줄 시원한 동굴이 기다리고 있었어요, 입구부터 굉장히 시원하기 때문에 티켓줄이 길다면 입구에서 일행과 교대로 기다리는게 꿀팁입니다!꿀팁을 하나 더 드리자면,투명보트에서 인증샷이 우선적이신분들이라면 매표소 앞 안내문으로 투명보트 대기줄이 2시간이라고 겁부터 줍니다.그냥 무시하셔도 되고 애초에 투명보트 포함 입장료는 다르기 때문에 무조건 보트입장권으로 끊으세요!그리고 가이드맵에 나오는 보트 선착장으로 바로 가세요,사실상 동굴이 정말 잘 구성되어있어 볼거리가 정말 많았지만 사실상 가족단위,어린이 친구들에게 초점이 맞춰져있었기에 인스타,블로그 등에 올릴 투명보트 인증샷이 필요하신거라면 선착장으로 빠르게 도착하시는 걸 추천드립니다!저희도 바로 보트 선착장으로 도착했고 입구에 2시간이라고 예상대기시간을 붙여놨던것과는 달리 실제 대기시간은 30분정도였어요! 투명보트를 타는 공간이 생각보다 정말 예쁘고 즐거운 경험이기에 정말 꼭 타시길 추천드립니다! 사진과 영상도 나름 잘 나오고, 보트타시는분들 만족도 엄청 높아요!!물은 그리 깊지 않고 딱히 보트 운행 방법이 미숙해도 안쪽에 직원분들께서 잘 진행해주시기 때문에 크게 걱정 안하셔도 됩니다. 그래도 촬영시 모든 소지품 주의! 한쪽으로 기울어지면 빠질 수 있으니 더더욱 조심!동굴을 제외하고도 주변에 즐길거리들과 카페가 있기 때문에 가족들과 방문하기 정말 좋은곳이라는 생각이 들었습니다, 주말엔 사람이 정말 많았지만 동굴이 생각보다 규모가 정말 크기때문에 여유롭게 볼 수 있었어요', '겉옷 챙겨가세요 아이들에게 유익합니다', '동굴 들어가기전 여분의 옷을 준비하셔서 가셔야 할거예요...여름에도 서늘합니다...', '동굴이 높아서 답답함이 없고 아기자기하게볼거리 많이 만들어 놓으셔서 좋았어요', '감금주의', '인공동굴이고 조형물이 멋있진 않아요..', '여긴 키즈전용으로 하는것도 나쁘지않음아동용시설비중이 높고 보트제외하면 뭘하고 놀지 고민해야함 테마파크라고 하기엔 액티비티나 체험을 늘렸으면 좋겠음', '애들데리고 가기좋은곳이긴하네요.보트는 사진하고 많이 다르니 알아보구 구매하시기바랍니다.환불은 절대안해줍니다.보트도 뒤집어지게 생겨가지구 못타서 환불해달랬더니  네명이 못타면 만원이 넘는데..좀그지같은 동굴', '괜찮게 잘 보고왔어용 ㅋㅋ 가격값도 하구 확실히 아이랑 함께 오기 좋을거 같았어용', '한번쯤은 가볼만한..근데 두번은 돈 아까운..왤케 동굴에 촌스러운 조형물 두는걸 좋아하는거지?이해가 어려움...', '입장료가 비싸다 생각했는데(입장+보트 성인1인 13,000원) 들어가서 이것저것 구경하고 체험하니 괜찮았던 것같아요. 특히 보트는 유치하다고 생각했는데 생각보다도 재밌었어요 ㅋㅋㅋ 조명이랑 뜬금없고 통일성없다 생각할수는 있지만 나름 정성들였고ㅋㅋ 와인도 사고, 기프트샵에서 사과찹쌀떡이랑 사과약과도 사고 살게 많아서 돈도 많이 썼네요 ㅋㅋ 재미있었습니다.', '언능 집가서 알까야  됨관람객  나몰라', '6시까지인데 5시 30분전엔 나와야됨  아니면 갇힘', '진심 당한다고 생각만해도 소름끼치는짓 해놓고 뻔뻔한곳', '이게 도대체 무슨 일이래요? 동네 챙피해서 살 수가 없네', '사람 가둬놔도 당당한 곳. 유도등 있는데요? 20미터마다 있는데요? 왜 못봐요?', '관람중에 불끄는곳', '관람시간 남아있어도 관람객이 안에있어도 불끄고 문잠그고 퇴근한 곳. 일주일이 지나도록 사과도 없었던 곳.절대 가지말아야 할 곳 으로 남겨둠.', '장점: DP 촬영장소(DP 팬이어서 성립 가능), 동굴내 보트(카약) 체험, 역사가 담긴 사진들과 설명들  단점: 동굴 내 뜬금없고 어울리지 않는 장식물들 (이쁜 것도 아니고 테마가 있는 것도 아니고 사진을 이쁘게 찍을 수 있는것도 아니고) 활석 채굴을 위한 동굴이어 인위적일수 밖에 없지만 무언가 아쉬움이 많았던 장소', '최악이네 !시.운영 이런!. 사건터질라!', '관람 중인데도 정신줄 놓은 직원이 불 끄고 퇴근 해버린 지옥 굴이라고 해서 성지순례 왔씀다.비나이다 로또1등 비나이다~ㅡ.ㅡ', '갇힐 각오해야 갈 수 있는 곳.', '관광객 있는데 불끄고 퇴근한다죠?', '충주 활옥동굴에서 폐장시간이 되기도 전에 관람객이 갇히는 소동이 발생했다. 활옥동굴은 인스타그램 등 주요 사회관계망서비스(SNS)에서 주목받는 명소이기도 했다.', "오우, 진짜 동굴은 어떤 모습인지 체험까지 하게 해준 동굴이네요~'어둠속 갇혀 동굴 공포…직원은 철문까지 잠그고 퇴근했다' https://naver.me/FLKswXao", '아이들과 오기는 매우 훌륭합니다.. 내부 매점의 엄청난 가격이 부담스럽습니다만 외부에서 미리 마실거리랑 간단한 간식은 챙겨오세요.저희 가족은 매우 만족했습니다 ^^카약체험 재밌습니다.', '애기들 데리고 갈 거면 가볼만한데 성인들이 가기에는 너무 지루하네영 카누 말고는 따로 볼 건 없어요. 주변에 일정있어서 오시는 거 아니면 굳이 찾아서 오는 건 매우 비추합니다.', '한 여름 피서지로 추천하며, 인스타에 올리기 좋다.', '앞에서 파는 셀프라면 5000원 ㅠㅠ, 스티커 붙인 돌맹이(물감으로 그린게 아니었음)도 5000원 너무 비싸다고 생각되고, 카누 체험도 한 시간정도 기다려서 5분정도 탔어요!! 후기에 비해 실망도 컸던 여행지였어요!!!', '카약체험', '참 다 좋았는데 마지막에 편의점가서 음료수 하나에 4천원 주고 사기 전까지는 말이죠. 2032년 가격을 미리 느끼기 싫다면 목마를거 대비해서 음료를 잘 구비해주세요.', '너무 이쁘네요~!! 시원하고 재미있었습니다 시간 가는 줄 모르고 즐겁게 있다 왔어욧', '아기자기하게 꾸며져 있어서 아이들이 좋아합니다.다만 입장권이 비싸다는 느낌입니다.카약도 대기가 너무 기네요', '입장료 만원. 카약타면 삼천원 추가. 유아동반 추천. 시원함.', '애들있으면 추천성인들만있으면 비추천 가격대비 볼거리가 너무없고 관리자들도 그걸 아는지 조명으로 덕지덕지 억지로 도배해놓은 느낌임 진짜 실망', '자연동굴이 아니고 갱도를 꾸민거라서 전체적으로 평지입니다. 가족끼리 걷기 좋아요. 비수기 또는 평일이면 투명카누 같이 예매하시는 게 무조건 좋을 듯합니다. 기념품 샵에서 파는 와사비 절임 (6,000원) 맛있어요. 숙소에서 고기 구워 드실 분은 하나 사서 곁들여 드세요! 그리고 기념품 샵에서 돌에 그림 그리는 것도 있는데 (9,000원) 이것도 생각보다 재밌습니다 ㅋㅋ 동굴 입장료 10,000원은 소비자 입장에서 다소 비싼 감이 있는데 저는 그림 그리는 게 너무 재밌어서 본전 이상 뽑았어요 ㅎ', '입장료가 좀 비싼 감이 있지만 그만큼 값어치를 한다고 생각함. 완전 즐겁게 구경하다 옴.', '입장료 넘 아깝다입장료에  비하여 볼거리 없다', '최고의 피서지. 카약 피서 끝판 왕', '7월말 완전 뜨거웠는데도 냉장고처럼 추웠음 이불 뒤집어 쓰고 가다가 걷다보니 몸이적응되어서 바람막이입고 돌아다님 꼭 바람막이 필수..', '한 번쯤 가볼만함두 번은 안갈듯', '제천에서 왔는데 개인적으로 만족했습니다~~아이들이 너무 좋아하네요^^ 동굴 안에 설명도 야무지게 해 놓았고 길 잃어버리지 않게  관람방향을 다 적어 놓아서 관람하기 편했습니다!! 동굴입장 가격은 사진에 올려 두었으니 참고해 주세요!!!', '충주에 이런 곳이 있을줄 몰랐어요7월초 엄청 더운날 갔는데 입구에서부터 시원한 바람 불어오고 돌아다니는 내내 쌀쌀하다고 느낄정도로 시원했어요 초입에서는 별거 없구나했는데 들어갈수록 약간의 물안개?에 전래동화 속에 들어온 것처럼 신비의 세계에 온 듯한 느낌이 들어서 사진 잘 안찍는데 정말 셔터를 부르는 공간이 엄청 많았어요 주말에 늦게 가서 카약도 몇분대기후 탈수있었는데 너무 좋은 경험이었어요 물 자체가 석회성분때문인지 옥빛인데 물고기도 헤엄치고 직원분들이 카약 방향도 잡아주시고 신경 써주셔서 엄청 작은 애기들 물놀이 풀장갔았지만 재밌었어요 ㅎ 더운 여름에 가보길 적극 추천합니다!ㅎ', '충주는관광지가 많지않아 갈수밖에없는 곳같아요.나름 열심히 꾸며두었어요 3천원추가하고 카약타려했는데 대기가 넘많아서 그냥왔구요:)  한번쯤 가볼만하나 만원은 비싼느낌 ㅎㅎ', '가격은 살짝 비싸긴  했지만 그래도 보트타는건 새로운 경험이였어요. 좋았어요. 그리고 65세이상 어르신인 어머님은 할인도 됐습니다. 동굴안에 조명으로 잘 꾸며놓은게 인상적이였습니다. 아기자기하게 잘 꾸며 놓았습니다. 한여름에 들어가도 안에는 굉장히 시원합니다. 오히려 살짝 춥다고까지 느낄정도였습니다. 하지만 걷다보니 안쪽 동굴크기가 상당히 커서 꽤 많이 걷게 되니 나중엔 춥지않더라구요.', '볼것도없는 폐광 가격도비싸', '여름에 오면 역시 동굴이라 시원합니다. 어린이들 데리고 오면 엄청 좋아할듯 합니다. 그리고 카약 타실려면 일찍 오세요. 대기시간 1시간 넘게 걸립니다.', '돈가스 별로ㅡㅡ주차요원 답없음ㅡㅡ', '다 좋고 카누도 좋지만 대중교통으로 가면 아무리 늦어도 막차 1940는 꼭 잡아야되용', '동굴이 넘 시원하고 좋네요. 특히 투명카약은 정말 좋은 아이템입니다.하지만 입구 음식점은 너무 비싼것 같네요.아무리 관광지라고 하지만 상상이상이네요.', '투명 카약 타볼만하다앞에 돈까스 맛은 있는데 비싸다', '별 기대없이 작은 동굴이겠거니 하고 갔는데 생각보다 규모가 꽤 크고 재미있었네요. 자연동굴이 아니라 채굴을 위한 일반 동굴이었는데, 안에 별게별게 다 있는 ㅎㅎㅎ 핸폰도 빵빵터지고 화장실, 사물함도 있는 동굴이었습니다아이랑 1시간 반 넘게 놀다왔어요~ 전 두손 가볍게 들어갔었는데 오락실이 있는 줄 알았으면 현금 챙겨서 들어갈걸 그랬어요. 참조하시길요! 여름에 가면 시원하고 좋을거 같아요~', '좋아요', '충주 친구 보는 김에 별 생각 없이 갔는데 충주에서 한 것, 간 곳 중 제일 최고였습니다!볼 거리 많아서 사진 찍을 것도 많고 제일 재밌고 좋았던 건 카약이네요!타고 나서 5분만 더 탈 걸.. 또 타고 싶다.. 반복 했네요 ㅋㅋㅋㅋㅋ사람 적으면 미적미적하면서 더 탈 수 있으니 한산할 때 가는 게 ㅎㅎ1인(카약 포함) 만 원이면 진짜 가성비 좋네요', '아주 좋아요 동굴 안이 따뜻하고 시설도 깨끗해요카약 보트 탔는데 너무 재밌네용 짱 강추해요예쁘게 잘 꾸며져 있어요. 저는 카약보트 너무 즐겁게 탔어요^^ 구경하기도 좋으니까 한 번 와보세요^^', '무작정 혼자 충주에 내려가 할 일 없이 있던 참에 동굴이 유명하다고 해서 다녀왔습니다혼자서도 즐거운 시간 보내고 왔습니다', '볼거리는 많이 없지만 생각보단 길고 기존 자연동굴과는 다른 매력이 있네요 카약은 꼭 타보세요', '7천 입장료 +3천 카약 비용안에 조잡한 것들이 많은데 입장료 7천원 받기 많이 미안했던 모양. 안에 오락실 있는거 보고 더 놀람.3천 카약은 물이 좀 더러운데 어쩔수 없이 물이 옷에 튐. 많이 찝찝하고 다시 타고 싶지 않았음. 깔끔하신분들은 비추', '그냥 그렇습니다. 만장굴 고수동굴 생각하고 가면 실망합니다. 동굴 자체는 큰 매력 없고 카누 타는 거 하나 재밌어요.', '나름 괜찮아요.. 초반엔 추운데 걷다보면 덥습니다 ㅋ다좋은데 돈가스 12000원 이거너무한거 아닙니까 ㅋㅋㅋㅋ', '크기는 생각보다 커요. 아이들과 간만에 보트도 타고 즐거운 시간 보냈습니다. 천천히 산책한다 생각하면 괜찮아요^^', '긴팔 꼭 챙기세요.여자분들하고 애들은 무조건 챙겨 가세요.남자분들도 추위좀 타는분들은 긴팔 챙겨 가세요.밖은 머리가 벗어지게 더웠는데 동굴 한바퀴 돌고 나니 추위 잘 안타는 저도 살짝 추웠습니다.그리고 동굴 카약은 기다림에비해 타는 시간도 짧고...  좀 가성비 떨이지는 느낌?암튼 긴팔은 꼭 챙겨 가세요.', '(21.07.31 방문) 12시에 도착하니, 매표소에서 카약은 대기 시간 한시간반으로 안내하고 있었어요. 외부 온도는 36도 넘어가는데 동굴 앞이나 내부는 엄청 춥게 느껴져서 아이들은 긴팔 중비해야해요. 기프트샵에서 담요 유료 대여 중입니다. 동굴 입구에서 빠르게 카약 타는데로 가서 40분 대기 후 타고 다시 처음부터 돌았어요. 카약은 투명이라 신기하고 아이들이 재미있어해요. 헌데 시간이 짧네요.', '한여름에 춥고 카약도 재밌고 볼만 합니다.', '한여름에 벌벌떨다 왔어요!! 가는길 경치도 너무 멋있고 카누까지타면 꽤 괜찮은 관광지인것 같습니다.', '좋긴한데요...5인이상 집합금지 인데 단체버스차량 이 다니고5인 이상씩 무리지어 다니네요?그리고 입장까지 그냥 하네요야외는 괜찮은건가요?', '충주에 이런 동굴이 있다니 너무 신기해요 규모도 진짜 커서 놀랐어요. 가볍게 관람하기 좋은것 같아요.', '동굴 완전 시원하고 카약도 한적하게 물고기구경하면서 잘 탔어요 안에 엄청 넓은편이라 생각보다 더 걸은 느낌', '생각보다는 괜찮아요.', '한번쯤 가볼만함:) 카약은 무조건 타야함', '2시간 걸려 방문했으나 입장료에 비해 볼거리가 없었어요.기억에 남는건 불 켜 놓은 장식물하고, 야광 빛?카약 보트를 타지 않고 동굴관람만 하는 건 추천드리지 않네요.', '입구에 주차 안내 하는 해병대 옷입은 분? 강아지 데리고 있어서 다른곳 갈지 찾아보고 있는데 반말로 뭐라하더니 똑같은 말을 세번이나 짜증내면서 하더라구요 그래서 왜 짜증내냐 했더니 나이로 밀어 붙이려하네요...참.. 주차 관리 하시는거 같은데 짜증내고 그래서 카페도 못가고 그냥 왔네요 다시는 안가고 싶네요 주차요원으로 해병대분 안계셨으면 좋겠네요', '도데체  짜증나네~', '사기 당한 느낌이 아니라 이건 그냥 사기다!!누가 저런 곳을 9천원이나 내고 들어간다고 하면 도시락 싸들고 가서 말리겠다!!어처구니 없는 지하 도로에다가 그냥 동물모형에 불 켜놓은게 전부임', '그냥 제3땅굴을 6천원이나 주고 들어간 느낌......뭐 샌드위치 쿠폰을 준다고 어느 블로거가 썼던데 아무것도 안줌........거기다가 카약까지 3천원 유료.........카약 타러 동굴가는 느낌........그 돈으로 단양 천둥동굴 가는게 더 낫겠다...........']</t>
         </is>
       </c>
     </row>
